--- a/ESP32-S3/ESP32-Pin-Allocation.xlsx
+++ b/ESP32-S3/ESP32-Pin-Allocation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\GitHub\Development_boards_DOC\ESP32-S3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F7D277C-FB5C-4819-B8EC-354301DAC13C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D82CA445-A5AE-40A0-BF1F-534617C1AD0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-68" yWindow="-68" windowWidth="23176" windowHeight="13816" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ESP32-S3-Modules" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="245">
   <si>
     <t>MINI1</t>
   </si>
@@ -761,6 +761,12 @@
   </si>
   <si>
     <t>PSRAM (8 MB)</t>
+  </si>
+  <si>
+    <t>WS2812 LED</t>
+  </si>
+  <si>
+    <t>Built-in LED</t>
   </si>
 </sst>
 </file>
@@ -1000,7 +1006,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1099,10 +1105,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1128,138 +1130,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="20">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF9CB9C"/>
-          <bgColor rgb="FFF9CB9C"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1490,6 +1360,138 @@
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF9CB9C"/>
+          <bgColor rgb="FFF9CB9C"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1504,30 +1506,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C2A05E64-0B23-4CCE-A7CF-0B94A2D42DC4}" name="Table1" displayName="Table1" ref="A1:R46" totalsRowShown="0" headerRowDxfId="5" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C2A05E64-0B23-4CCE-A7CF-0B94A2D42DC4}" name="Table1" displayName="Table1" ref="A1:R46" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="A1:R46" xr:uid="{C2A05E64-0B23-4CCE-A7CF-0B94A2D42DC4}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R46">
     <sortCondition ref="E1:E46"/>
   </sortState>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{E2DFA702-B535-490C-97A4-94C1D3A4A208}" name="MINI1" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{CB8F976E-8567-4CE7-8C5A-E46753574887}" name="WROOM1" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{0AD67039-3AD4-4320-B142-A418A79DA2B0}" name="WROOM2" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{423FE9A7-C8B3-4FF9-B905-02A1185CB94F}" name="ESP32-S3" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{700CC33D-3A5B-41F9-9AB2-7648CD258052}" name="Name" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{D2862861-F294-4DD8-969B-60C8D76EC82A}" name="Usable" dataDxfId="19"/>
-    <tableColumn id="7" xr3:uid="{4B4E667C-4FEF-48BF-9B1E-6C01663FA9CF}" name="Primary" dataDxfId="18"/>
-    <tableColumn id="8" xr3:uid="{B64ADE42-A8A2-499F-93FE-880D287441D5}" name="Strap" dataDxfId="17"/>
-    <tableColumn id="10" xr3:uid="{4D9E205C-3F99-4D6D-A720-3B50C2CFF8BA}" name="Input" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{77FD6588-6BBE-4758-9997-2106D4C7480A}" name="Output" dataDxfId="15"/>
-    <tableColumn id="12" xr3:uid="{9C280F6D-6A42-4966-B221-9A3EAAE4933C}" name="Touch" dataDxfId="14"/>
-    <tableColumn id="13" xr3:uid="{7E86FDD9-D591-4B1A-938E-079764233E8C}" name="ADC" dataDxfId="13"/>
-    <tableColumn id="14" xr3:uid="{27C37951-CF43-45F6-AD19-D19515A48A10}" name="RTC" dataDxfId="12"/>
-    <tableColumn id="15" xr3:uid="{97D15B61-87B3-4E87-9F31-625609B71E53}" name="UART" dataDxfId="11"/>
-    <tableColumn id="16" xr3:uid="{27559FAC-59BF-4558-B3A3-BB2183FB6E6C}" name="SPI" dataDxfId="10"/>
-    <tableColumn id="17" xr3:uid="{DC42F2FE-0D65-4945-BC06-FE2E284F0EED}" name="I2C" dataDxfId="9"/>
-    <tableColumn id="18" xr3:uid="{55FA46DA-374D-49A3-857F-8F681F1AB611}" name="Other" dataDxfId="8"/>
-    <tableColumn id="19" xr3:uid="{9D9743EB-6B69-4447-AA55-D9466AF24A58}" name="Notes" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{E2DFA702-B535-490C-97A4-94C1D3A4A208}" name="MINI1" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{CB8F976E-8567-4CE7-8C5A-E46753574887}" name="WROOM1" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{0AD67039-3AD4-4320-B142-A418A79DA2B0}" name="WROOM2" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{423FE9A7-C8B3-4FF9-B905-02A1185CB94F}" name="ESP32-S3" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{700CC33D-3A5B-41F9-9AB2-7648CD258052}" name="Name" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{D2862861-F294-4DD8-969B-60C8D76EC82A}" name="Usable" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{4B4E667C-4FEF-48BF-9B1E-6C01663FA9CF}" name="Primary" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{B64ADE42-A8A2-499F-93FE-880D287441D5}" name="Strap" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{4D9E205C-3F99-4D6D-A720-3B50C2CFF8BA}" name="Input" dataDxfId="9"/>
+    <tableColumn id="11" xr3:uid="{77FD6588-6BBE-4758-9997-2106D4C7480A}" name="Output" dataDxfId="8"/>
+    <tableColumn id="12" xr3:uid="{9C280F6D-6A42-4966-B221-9A3EAAE4933C}" name="Touch" dataDxfId="7"/>
+    <tableColumn id="13" xr3:uid="{7E86FDD9-D591-4B1A-938E-079764233E8C}" name="ADC" dataDxfId="6"/>
+    <tableColumn id="14" xr3:uid="{27C37951-CF43-45F6-AD19-D19515A48A10}" name="RTC" dataDxfId="5"/>
+    <tableColumn id="15" xr3:uid="{97D15B61-87B3-4E87-9F31-625609B71E53}" name="UART" dataDxfId="4"/>
+    <tableColumn id="16" xr3:uid="{27559FAC-59BF-4558-B3A3-BB2183FB6E6C}" name="SPI" dataDxfId="3"/>
+    <tableColumn id="17" xr3:uid="{DC42F2FE-0D65-4945-BC06-FE2E284F0EED}" name="I2C" dataDxfId="2"/>
+    <tableColumn id="18" xr3:uid="{55FA46DA-374D-49A3-857F-8F681F1AB611}" name="Other" dataDxfId="1"/>
+    <tableColumn id="19" xr3:uid="{9D9743EB-6B69-4447-AA55-D9466AF24A58}" name="Notes" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1734,7 +1736,7 @@
   <dimension ref="A1:AF999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O31" sqref="O31"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1"/>
@@ -1834,7 +1836,7 @@
       <c r="A2" s="26">
         <v>4</v>
       </c>
-      <c r="B2" s="47">
+      <c r="B2" s="45">
         <v>27</v>
       </c>
       <c r="C2" s="26">
@@ -1883,7 +1885,7 @@
       <c r="A3" s="26">
         <v>5</v>
       </c>
-      <c r="B3" s="47">
+      <c r="B3" s="45">
         <v>39</v>
       </c>
       <c r="C3" s="26">
@@ -1935,7 +1937,7 @@
       <c r="A4" s="26">
         <v>6</v>
       </c>
-      <c r="B4" s="47">
+      <c r="B4" s="45">
         <v>38</v>
       </c>
       <c r="C4" s="26">
@@ -1944,13 +1946,15 @@
       <c r="D4" s="26">
         <v>7</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>23</v>
       </c>
       <c r="F4" s="3">
-        <v>2</v>
-      </c>
-      <c r="G4" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>244</v>
+      </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -1987,7 +1991,7 @@
       <c r="A5" s="26">
         <v>7</v>
       </c>
-      <c r="B5" s="47">
+      <c r="B5" s="45">
         <v>15</v>
       </c>
       <c r="C5" s="26">
@@ -2011,7 +2015,7 @@
       <c r="K5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="L5" s="41" t="s">
+      <c r="L5" s="3" t="s">
         <v>29</v>
       </c>
       <c r="M5" s="2" t="s">
@@ -2041,7 +2045,7 @@
       <c r="A6" s="26">
         <v>8</v>
       </c>
-      <c r="B6" s="47">
+      <c r="B6" s="45">
         <v>4</v>
       </c>
       <c r="C6" s="26">
@@ -2093,7 +2097,7 @@
       <c r="A7" s="26">
         <v>9</v>
       </c>
-      <c r="B7" s="47">
+      <c r="B7" s="45">
         <v>5</v>
       </c>
       <c r="C7" s="26">
@@ -2145,7 +2149,7 @@
       <c r="A8" s="26">
         <v>10</v>
       </c>
-      <c r="B8" s="47">
+      <c r="B8" s="45">
         <v>6</v>
       </c>
       <c r="C8" s="26">
@@ -2197,7 +2201,7 @@
       <c r="A9" s="26">
         <v>11</v>
       </c>
-      <c r="B9" s="47">
+      <c r="B9" s="45">
         <v>7</v>
       </c>
       <c r="C9" s="26">
@@ -2249,7 +2253,7 @@
       <c r="A10" s="26">
         <v>12</v>
       </c>
-      <c r="B10" s="47">
+      <c r="B10" s="45">
         <v>12</v>
       </c>
       <c r="C10" s="26">
@@ -2271,7 +2275,7 @@
       <c r="K10" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L10" s="41" t="s">
+      <c r="L10" s="3" t="s">
         <v>44</v>
       </c>
       <c r="M10" s="2" t="s">
@@ -2280,7 +2284,7 @@
       <c r="N10" s="3"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
-      <c r="Q10" s="45" t="s">
+      <c r="Q10" s="43" t="s">
         <v>214</v>
       </c>
       <c r="R10" s="2"/>
@@ -2303,7 +2307,7 @@
       <c r="A11" s="26">
         <v>13</v>
       </c>
-      <c r="B11" s="47">
+      <c r="B11" s="45">
         <v>17</v>
       </c>
       <c r="C11" s="26">
@@ -2325,18 +2329,18 @@
       <c r="K11" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="L11" s="41" t="s">
+      <c r="L11" s="3" t="s">
         <v>47</v>
       </c>
       <c r="M11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="N11" s="3"/>
-      <c r="O11" s="44" t="s">
+      <c r="O11" s="42" t="s">
         <v>219</v>
       </c>
       <c r="P11" s="2"/>
-      <c r="Q11" s="45" t="s">
+      <c r="Q11" s="43" t="s">
         <v>218</v>
       </c>
       <c r="R11" s="2"/>
@@ -2359,7 +2363,7 @@
       <c r="A12" s="26">
         <v>14</v>
       </c>
-      <c r="B12" s="47">
+      <c r="B12" s="45">
         <v>18</v>
       </c>
       <c r="C12" s="26">
@@ -2381,18 +2385,18 @@
       <c r="K12" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="L12" s="41" t="s">
+      <c r="L12" s="3" t="s">
         <v>50</v>
       </c>
       <c r="M12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="N12" s="3"/>
-      <c r="O12" s="44" t="s">
+      <c r="O12" s="42" t="s">
         <v>221</v>
       </c>
       <c r="P12" s="2"/>
-      <c r="Q12" s="42" t="s">
+      <c r="Q12" s="40" t="s">
         <v>220</v>
       </c>
       <c r="R12" s="2"/>
@@ -2415,7 +2419,7 @@
       <c r="A13" s="26">
         <v>15</v>
       </c>
-      <c r="B13" s="47">
+      <c r="B13" s="45">
         <v>19</v>
       </c>
       <c r="C13" s="26">
@@ -2437,18 +2441,18 @@
       <c r="K13" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="L13" s="40" t="s">
+      <c r="L13" s="2" t="s">
         <v>53</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="N13" s="3"/>
-      <c r="O13" s="44" t="s">
+      <c r="O13" s="42" t="s">
         <v>223</v>
       </c>
       <c r="P13" s="2"/>
-      <c r="Q13" s="42" t="s">
+      <c r="Q13" s="40" t="s">
         <v>222</v>
       </c>
       <c r="R13" s="2" t="s">
@@ -2473,7 +2477,7 @@
       <c r="A14" s="27">
         <v>16</v>
       </c>
-      <c r="B14" s="47">
+      <c r="B14" s="45">
         <v>20</v>
       </c>
       <c r="C14" s="26">
@@ -2495,18 +2499,18 @@
       <c r="K14" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="L14" s="40" t="s">
+      <c r="L14" s="2" t="s">
         <v>56</v>
       </c>
       <c r="M14" s="2" t="s">
         <v>12</v>
       </c>
       <c r="N14" s="3"/>
-      <c r="O14" s="44" t="s">
+      <c r="O14" s="42" t="s">
         <v>225</v>
       </c>
       <c r="P14" s="2"/>
-      <c r="Q14" s="43" t="s">
+      <c r="Q14" s="41" t="s">
         <v>224</v>
       </c>
       <c r="R14" s="2"/>
@@ -2528,7 +2532,7 @@
       <c r="A15" s="27">
         <v>17</v>
       </c>
-      <c r="B15" s="47">
+      <c r="B15" s="45">
         <v>21</v>
       </c>
       <c r="C15" s="26">
@@ -2550,18 +2554,18 @@
       <c r="K15" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="L15" s="40" t="s">
+      <c r="L15" s="2" t="s">
         <v>59</v>
       </c>
       <c r="M15" s="2" t="s">
         <v>12</v>
       </c>
       <c r="N15" s="3"/>
-      <c r="O15" s="44" t="s">
+      <c r="O15" s="42" t="s">
         <v>227</v>
       </c>
       <c r="P15" s="2"/>
-      <c r="Q15" s="43" t="s">
+      <c r="Q15" s="41" t="s">
         <v>228</v>
       </c>
       <c r="R15" s="2"/>
@@ -2584,7 +2588,7 @@
       <c r="A16" s="27">
         <v>18</v>
       </c>
-      <c r="B16" s="47">
+      <c r="B16" s="45">
         <v>22</v>
       </c>
       <c r="C16" s="26">
@@ -2606,18 +2610,18 @@
       <c r="K16" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="L16" s="40" t="s">
+      <c r="L16" s="2" t="s">
         <v>62</v>
       </c>
       <c r="M16" s="2" t="s">
         <v>12</v>
       </c>
       <c r="N16" s="3"/>
-      <c r="O16" s="44" t="s">
+      <c r="O16" s="42" t="s">
         <v>226</v>
       </c>
       <c r="P16" s="2"/>
-      <c r="Q16" s="43" t="s">
+      <c r="Q16" s="41" t="s">
         <v>229</v>
       </c>
       <c r="R16" s="2"/>
@@ -2640,7 +2644,7 @@
       <c r="A17" s="27">
         <v>19</v>
       </c>
-      <c r="B17" s="47">
+      <c r="B17" s="45">
         <v>8</v>
       </c>
       <c r="C17" s="26">
@@ -2660,7 +2664,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
-      <c r="L17" s="40" t="s">
+      <c r="L17" s="2" t="s">
         <v>64</v>
       </c>
       <c r="M17" s="2" t="s">
@@ -2694,7 +2698,7 @@
       <c r="A18" s="27">
         <v>20</v>
       </c>
-      <c r="B18" s="47">
+      <c r="B18" s="45">
         <v>9</v>
       </c>
       <c r="C18" s="26">
@@ -2714,7 +2718,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="2"/>
-      <c r="L18" s="40" t="s">
+      <c r="L18" s="2" t="s">
         <v>67</v>
       </c>
       <c r="M18" s="2" t="s">
@@ -2747,7 +2751,7 @@
       <c r="A19" s="27">
         <v>21</v>
       </c>
-      <c r="B19" s="47">
+      <c r="B19" s="45">
         <v>10</v>
       </c>
       <c r="C19" s="26">
@@ -2767,7 +2771,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="2"/>
-      <c r="L19" s="40" t="s">
+      <c r="L19" s="2" t="s">
         <v>70</v>
       </c>
       <c r="M19" s="2" t="s">
@@ -2799,7 +2803,7 @@
       <c r="A20" s="27">
         <v>22</v>
       </c>
-      <c r="B20" s="47">
+      <c r="B20" s="45">
         <v>11</v>
       </c>
       <c r="C20" s="26">
@@ -2819,7 +2823,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="2"/>
-      <c r="L20" s="40" t="s">
+      <c r="L20" s="2" t="s">
         <v>73</v>
       </c>
       <c r="M20" s="2" t="s">
@@ -2853,7 +2857,7 @@
       <c r="A21" s="27">
         <v>23</v>
       </c>
-      <c r="B21" s="47">
+      <c r="B21" s="45">
         <v>13</v>
       </c>
       <c r="C21" s="26">
@@ -2875,7 +2879,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="2"/>
-      <c r="L21" s="40" t="s">
+      <c r="L21" s="2" t="s">
         <v>77</v>
       </c>
       <c r="M21" s="2" t="s">
@@ -2909,7 +2913,7 @@
       <c r="A22" s="27">
         <v>24</v>
       </c>
-      <c r="B22" s="47">
+      <c r="B22" s="45">
         <v>14</v>
       </c>
       <c r="C22" s="26">
@@ -2931,7 +2935,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="2"/>
-      <c r="L22" s="40" t="s">
+      <c r="L22" s="2" t="s">
         <v>81</v>
       </c>
       <c r="M22" s="2" t="s">
@@ -2965,7 +2969,7 @@
       <c r="A23" s="27">
         <v>25</v>
       </c>
-      <c r="B23" s="47">
+      <c r="B23" s="45">
         <v>23</v>
       </c>
       <c r="C23" s="26">
@@ -2985,14 +2989,14 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="2"/>
-      <c r="L23" s="40"/>
+      <c r="L23" s="2"/>
       <c r="M23" s="2" t="s">
         <v>12</v>
       </c>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
-      <c r="Q23" s="45"/>
+      <c r="Q23" s="43"/>
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
@@ -3013,7 +3017,7 @@
       <c r="A24" s="27">
         <v>26</v>
       </c>
-      <c r="B24" s="49"/>
+      <c r="B24" s="47"/>
       <c r="C24" s="28"/>
       <c r="D24" s="26">
         <v>28</v>
@@ -3034,10 +3038,10 @@
       <c r="N24" s="3"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
-      <c r="Q24" s="44" t="s">
+      <c r="Q24" s="42" t="s">
         <v>235</v>
       </c>
-      <c r="R24" s="44" t="s">
+      <c r="R24" s="42" t="s">
         <v>236</v>
       </c>
       <c r="S24" s="2"/>
@@ -3057,7 +3061,7 @@
     </row>
     <row r="25" spans="1:32" ht="15.75" customHeight="1">
       <c r="A25" s="28"/>
-      <c r="B25" s="49"/>
+      <c r="B25" s="47"/>
       <c r="C25" s="28"/>
       <c r="D25" s="26">
         <v>30</v>
@@ -3101,7 +3105,7 @@
     </row>
     <row r="26" spans="1:32" ht="15.75" customHeight="1">
       <c r="A26" s="28"/>
-      <c r="B26" s="49"/>
+      <c r="B26" s="47"/>
       <c r="C26" s="28"/>
       <c r="D26" s="26">
         <v>31</v>
@@ -3145,7 +3149,7 @@
     </row>
     <row r="27" spans="1:32" ht="15.75" customHeight="1">
       <c r="A27" s="28"/>
-      <c r="B27" s="49"/>
+      <c r="B27" s="47"/>
       <c r="C27" s="28"/>
       <c r="D27" s="26">
         <v>32</v>
@@ -3191,7 +3195,7 @@
     </row>
     <row r="28" spans="1:32" ht="15.75" customHeight="1">
       <c r="A28" s="28"/>
-      <c r="B28" s="49"/>
+      <c r="B28" s="47"/>
       <c r="C28" s="28"/>
       <c r="D28" s="26">
         <v>33</v>
@@ -3235,7 +3239,7 @@
     </row>
     <row r="29" spans="1:32" ht="15.75" customHeight="1">
       <c r="A29" s="28"/>
-      <c r="B29" s="49"/>
+      <c r="B29" s="47"/>
       <c r="C29" s="28"/>
       <c r="D29" s="26">
         <v>34</v>
@@ -3279,7 +3283,7 @@
     </row>
     <row r="30" spans="1:32" ht="15.75" customHeight="1">
       <c r="A30" s="28"/>
-      <c r="B30" s="49"/>
+      <c r="B30" s="47"/>
       <c r="C30" s="28"/>
       <c r="D30" s="26">
         <v>35</v>
@@ -3325,7 +3329,7 @@
       <c r="A31" s="26">
         <v>28</v>
       </c>
-      <c r="B31" s="49"/>
+      <c r="B31" s="47"/>
       <c r="C31" s="28"/>
       <c r="D31" s="26">
         <v>38</v>
@@ -3336,7 +3340,7 @@
       <c r="F31" s="3">
         <v>0</v>
       </c>
-      <c r="G31" s="46" t="s">
+      <c r="G31" s="44" t="s">
         <v>242</v>
       </c>
       <c r="H31" s="3"/>
@@ -3348,10 +3352,10 @@
       <c r="N31" s="3"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
-      <c r="Q31" s="45" t="s">
+      <c r="Q31" s="43" t="s">
         <v>237</v>
       </c>
-      <c r="R31" s="44" t="s">
+      <c r="R31" s="42" t="s">
         <v>232</v>
       </c>
       <c r="S31" s="2"/>
@@ -3373,7 +3377,7 @@
       <c r="A32" s="26">
         <v>29</v>
       </c>
-      <c r="B32" s="49"/>
+      <c r="B32" s="47"/>
       <c r="C32" s="28"/>
       <c r="D32" s="26">
         <v>39</v>
@@ -3384,7 +3388,7 @@
       <c r="F32" s="3">
         <v>0</v>
       </c>
-      <c r="G32" s="46" t="s">
+      <c r="G32" s="44" t="s">
         <v>242</v>
       </c>
       <c r="H32" s="3"/>
@@ -3396,10 +3400,10 @@
       <c r="N32" s="3"/>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
-      <c r="Q32" s="45" t="s">
+      <c r="Q32" s="43" t="s">
         <v>238</v>
       </c>
-      <c r="R32" s="44" t="s">
+      <c r="R32" s="42" t="s">
         <v>232</v>
       </c>
       <c r="S32" s="2"/>
@@ -3421,7 +3425,7 @@
       <c r="A33" s="26">
         <v>31</v>
       </c>
-      <c r="B33" s="47">
+      <c r="B33" s="45">
         <v>28</v>
       </c>
       <c r="C33" s="36" t="s">
@@ -3436,7 +3440,7 @@
       <c r="F33" s="3">
         <v>0</v>
       </c>
-      <c r="G33" s="46" t="s">
+      <c r="G33" s="44" t="s">
         <v>242</v>
       </c>
       <c r="H33" s="3"/>
@@ -3448,7 +3452,7 @@
       <c r="N33" s="3"/>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
-      <c r="Q33" s="44" t="s">
+      <c r="Q33" s="42" t="s">
         <v>239</v>
       </c>
       <c r="R33" s="2" t="s">
@@ -3473,7 +3477,7 @@
       <c r="A34" s="26">
         <v>32</v>
       </c>
-      <c r="B34" s="47">
+      <c r="B34" s="45">
         <v>29</v>
       </c>
       <c r="C34" s="36" t="s">
@@ -3488,7 +3492,7 @@
       <c r="F34" s="3">
         <v>0</v>
       </c>
-      <c r="G34" s="46" t="s">
+      <c r="G34" s="44" t="s">
         <v>242</v>
       </c>
       <c r="H34" s="3"/>
@@ -3500,7 +3504,7 @@
       <c r="N34" s="3"/>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
-      <c r="Q34" s="44" t="s">
+      <c r="Q34" s="42" t="s">
         <v>240</v>
       </c>
       <c r="R34" s="2" t="s">
@@ -3525,7 +3529,7 @@
       <c r="A35" s="26">
         <v>33</v>
       </c>
-      <c r="B35" s="47">
+      <c r="B35" s="45">
         <v>30</v>
       </c>
       <c r="C35" s="36" t="s">
@@ -3540,7 +3544,7 @@
       <c r="F35" s="3">
         <v>0</v>
       </c>
-      <c r="G35" s="46" t="s">
+      <c r="G35" s="44" t="s">
         <v>242</v>
       </c>
       <c r="H35" s="3"/>
@@ -3552,7 +3556,7 @@
       <c r="N35" s="3"/>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
-      <c r="Q35" s="44" t="s">
+      <c r="Q35" s="42" t="s">
         <v>241</v>
       </c>
       <c r="R35" s="2" t="s">
@@ -3577,7 +3581,7 @@
       <c r="A36" s="26">
         <v>34</v>
       </c>
-      <c r="B36" s="47">
+      <c r="B36" s="45">
         <v>31</v>
       </c>
       <c r="C36" s="26">
@@ -3602,7 +3606,7 @@
       <c r="N36" s="3"/>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
-      <c r="Q36" s="44" t="s">
+      <c r="Q36" s="42" t="s">
         <v>233</v>
       </c>
       <c r="R36" s="2"/>
@@ -3625,7 +3629,7 @@
       <c r="A37" s="26">
         <v>35</v>
       </c>
-      <c r="B37" s="47">
+      <c r="B37" s="45">
         <v>32</v>
       </c>
       <c r="C37" s="26">
@@ -3652,7 +3656,7 @@
       <c r="N37" s="3"/>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
-      <c r="Q37" s="44" t="s">
+      <c r="Q37" s="42" t="s">
         <v>234</v>
       </c>
       <c r="R37" s="2" t="s">
@@ -3677,7 +3681,7 @@
       <c r="A38" s="26">
         <v>36</v>
       </c>
-      <c r="B38" s="47">
+      <c r="B38" s="45">
         <v>33</v>
       </c>
       <c r="C38" s="26">
@@ -3704,7 +3708,7 @@
       <c r="N38" s="3"/>
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
-      <c r="Q38" s="44" t="s">
+      <c r="Q38" s="42" t="s">
         <v>216</v>
       </c>
       <c r="R38" s="2" t="s">
@@ -3729,7 +3733,7 @@
       <c r="A39" s="26">
         <v>37</v>
       </c>
-      <c r="B39" s="47">
+      <c r="B39" s="45">
         <v>34</v>
       </c>
       <c r="C39" s="26">
@@ -3756,7 +3760,7 @@
       <c r="N39" s="3"/>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
-      <c r="Q39" s="44" t="s">
+      <c r="Q39" s="42" t="s">
         <v>217</v>
       </c>
       <c r="R39" s="2" t="s">
@@ -3781,7 +3785,7 @@
       <c r="A40" s="26">
         <v>38</v>
       </c>
-      <c r="B40" s="47">
+      <c r="B40" s="45">
         <v>35</v>
       </c>
       <c r="C40" s="26">
@@ -3808,7 +3812,7 @@
       <c r="N40" s="3"/>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
-      <c r="Q40" s="44"/>
+      <c r="Q40" s="42"/>
       <c r="R40" s="2" t="s">
         <v>114</v>
       </c>
@@ -3831,7 +3835,7 @@
       <c r="A41" s="26">
         <v>39</v>
       </c>
-      <c r="B41" s="47">
+      <c r="B41" s="45">
         <v>37</v>
       </c>
       <c r="C41" s="26">
@@ -3860,7 +3864,7 @@
       </c>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
-      <c r="Q41" s="44" t="s">
+      <c r="Q41" s="42" t="s">
         <v>217</v>
       </c>
       <c r="R41" s="2"/>
@@ -3883,7 +3887,7 @@
       <c r="A42" s="26">
         <v>40</v>
       </c>
-      <c r="B42" s="47">
+      <c r="B42" s="45">
         <v>36</v>
       </c>
       <c r="C42" s="26">
@@ -3912,7 +3916,7 @@
       </c>
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
-      <c r="Q42" s="44" t="s">
+      <c r="Q42" s="42" t="s">
         <v>216</v>
       </c>
       <c r="R42" s="2"/>
@@ -3935,7 +3939,7 @@
       <c r="A43" s="26">
         <v>41</v>
       </c>
-      <c r="B43" s="47">
+      <c r="B43" s="45">
         <v>26</v>
       </c>
       <c r="C43" s="26">
@@ -3983,7 +3987,7 @@
       <c r="A44" s="27">
         <v>44</v>
       </c>
-      <c r="B44" s="47">
+      <c r="B44" s="45">
         <v>16</v>
       </c>
       <c r="C44" s="26">
@@ -4005,7 +4009,7 @@
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
-      <c r="L44" s="41"/>
+      <c r="L44" s="3"/>
       <c r="M44" s="3"/>
       <c r="N44" s="3"/>
       <c r="O44" s="2"/>
@@ -4031,7 +4035,7 @@
       <c r="A45" s="26">
         <v>27</v>
       </c>
-      <c r="B45" s="48">
+      <c r="B45" s="46">
         <v>24</v>
       </c>
       <c r="C45" s="27">
@@ -4056,7 +4060,7 @@
       <c r="N45" s="3"/>
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
-      <c r="Q45" s="45" t="s">
+      <c r="Q45" s="43" t="s">
         <v>230</v>
       </c>
       <c r="R45" s="2"/>
@@ -4079,7 +4083,7 @@
       <c r="A46" s="26">
         <v>30</v>
       </c>
-      <c r="B46" s="48">
+      <c r="B46" s="46">
         <v>25</v>
       </c>
       <c r="C46" s="27">
@@ -4088,13 +4092,15 @@
       <c r="D46" s="27">
         <v>36</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="E46" s="4" t="s">
         <v>125</v>
       </c>
       <c r="F46" s="3">
-        <v>2</v>
-      </c>
-      <c r="G46" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>243</v>
+      </c>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
@@ -4104,7 +4110,7 @@
       <c r="N46" s="3"/>
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
-      <c r="Q46" s="45" t="s">
+      <c r="Q46" s="43" t="s">
         <v>231</v>
       </c>
       <c r="R46" s="2"/>
@@ -4160,15 +4166,15 @@
     <row r="48" spans="1:32" ht="15.75" customHeight="1">
       <c r="A48" s="26">
         <f>COUNTIF(F$2:F$46,"=2")</f>
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B48" s="5">
         <f>A48-2</f>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C48" s="26">
         <f>B48-3</f>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D48" s="37" t="s">
         <v>126</v>
@@ -4202,15 +4208,15 @@
     <row r="49" spans="1:32" ht="15.75" customHeight="1">
       <c r="A49" s="26">
         <f>COUNTIF(F$2:F$46,"=1")</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B49" s="5">
         <f t="shared" ref="B49:C49" si="0">A49</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C49" s="26">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D49" s="37" t="s">
         <v>127</v>
